--- a/Bees/xlsx/manufacture.xlsx
+++ b/Bees/xlsx/manufacture.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cici\Desktop\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work1\Bees\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA07748-869E-4002-B5AA-80949A8DFAA9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A49B70-6C2D-4279-957C-286F04FD6F17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,7 +104,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>7.9850000000000003</v>
       </c>
       <c r="G3" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>7.97</v>
       </c>
       <c r="G4" s="2">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>7.9550000000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>7.94</v>
       </c>
       <c r="G6" s="2">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="G7" s="2">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>7.91</v>
       </c>
       <c r="G8" s="2">
-        <v>1.6</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>7.8949999999999996</v>
       </c>
       <c r="G9" s="2">
-        <v>1.7</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>7.88</v>
       </c>
       <c r="G10" s="2">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>7.8650000000000002</v>
       </c>
       <c r="G11" s="2">
-        <v>1.9</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
         <v>7.85</v>
       </c>
       <c r="G12" s="2">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>7.835</v>
       </c>
       <c r="G13" s="2">
-        <v>2.1</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,7 +776,7 @@
         <v>7.82</v>
       </c>
       <c r="G14" s="2">
-        <v>2.2000000000000002</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>7.8049999999999997</v>
       </c>
       <c r="G15" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>7.79</v>
       </c>
       <c r="G16" s="2">
-        <v>2.4</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="G17" s="2">
-        <v>2.5</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>7.7600000000000096</v>
       </c>
       <c r="G18" s="2">
-        <v>2.6</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>7.7450000000000001</v>
       </c>
       <c r="G19" s="2">
-        <v>2.7</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>7.7300000000000102</v>
       </c>
       <c r="G20" s="2">
-        <v>2.8</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>7.7150000000000096</v>
       </c>
       <c r="G21" s="2">
-        <v>2.9</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>7.7000000000000099</v>
       </c>
       <c r="G22" s="2">
-        <v>3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>7.6850000000000103</v>
       </c>
       <c r="G23" s="2">
-        <v>3.1</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>7.6700000000000097</v>
       </c>
       <c r="G24" s="2">
-        <v>3.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,7 +1029,7 @@
         <v>7.65500000000001</v>
       </c>
       <c r="G25" s="2">
-        <v>3.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,7 +1052,7 @@
         <v>7.6400000000000103</v>
       </c>
       <c r="G26" s="2">
-        <v>3.4</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>7.6250000000000098</v>
       </c>
       <c r="G27" s="2">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>7.6100000000000101</v>
       </c>
       <c r="G28" s="2">
-        <v>3.6</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>7.5950000000000104</v>
       </c>
       <c r="G29" s="2">
-        <v>3.7</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>7.5800000000000098</v>
       </c>
       <c r="G30" s="2">
-        <v>3.8</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1167,7 +1167,7 @@
         <v>7.5650000000000102</v>
       </c>
       <c r="G31" s="2">
-        <v>3.9</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>7.5500000000000096</v>
       </c>
       <c r="G32" s="2">
-        <v>4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>7.5350000000000099</v>
       </c>
       <c r="G33" s="2">
-        <v>4.0999999999999996</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>7.5200000000000102</v>
       </c>
       <c r="G34" s="2">
-        <v>4.2</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>7.5050000000000097</v>
       </c>
       <c r="G35" s="2">
-        <v>4.3</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>7.49000000000001</v>
       </c>
       <c r="G36" s="2">
-        <v>4.4000000000000004</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>7.4750000000000103</v>
       </c>
       <c r="G37" s="2">
-        <v>4.5</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>7.4600000000000097</v>
       </c>
       <c r="G38" s="2">
-        <v>4.5999999999999996</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>7.4450000000000101</v>
       </c>
       <c r="G39" s="2">
-        <v>4.7</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>7.4300000000000104</v>
       </c>
       <c r="G40" s="2">
-        <v>4.8</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>7.4150000000000098</v>
       </c>
       <c r="G41" s="2">
-        <v>4.9000000000000004</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>7.4000000000000101</v>
       </c>
       <c r="G42" s="2">
-        <v>5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>7.3850000000000096</v>
       </c>
       <c r="G43" s="2">
-        <v>5.0999999999999996</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>7.3700000000000099</v>
       </c>
       <c r="G44" s="2">
-        <v>5.2</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
         <v>7.3550000000000102</v>
       </c>
       <c r="G45" s="2">
-        <v>5.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>7.3400000000000096</v>
       </c>
       <c r="G46" s="2">
-        <v>5.4</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
         <v>7.3250000000000099</v>
       </c>
       <c r="G47" s="2">
-        <v>5.5</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>7.3100000000000103</v>
       </c>
       <c r="G48" s="2">
-        <v>5.6</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1581,7 +1581,7 @@
         <v>7.2950000000000204</v>
       </c>
       <c r="G49" s="2">
-        <v>5.7</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>7.2800000000000198</v>
       </c>
       <c r="G50" s="2">
-        <v>5.8</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>7.2650000000000201</v>
       </c>
       <c r="G51" s="2">
-        <v>5.9</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>7.2500000000000204</v>
       </c>
       <c r="G52" s="2">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>7.2350000000000199</v>
       </c>
       <c r="G53" s="2">
-        <v>6.1</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>7.2200000000000202</v>
       </c>
       <c r="G54" s="2">
-        <v>6.2</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>7.2050000000000196</v>
       </c>
       <c r="G55" s="2">
-        <v>6.3</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>7.1900000000000199</v>
       </c>
       <c r="G56" s="2">
-        <v>6.4</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>7.1750000000000203</v>
       </c>
       <c r="G57" s="2">
-        <v>6.5000000000000098</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>7.1600000000000197</v>
       </c>
       <c r="G58" s="2">
-        <v>6.6</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>7.14500000000002</v>
       </c>
       <c r="G59" s="2">
-        <v>6.7</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>7.1300000000000203</v>
       </c>
       <c r="G60" s="2">
-        <v>6.8000000000000096</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>7.1150000000000198</v>
       </c>
       <c r="G61" s="2">
-        <v>6.9000000000000101</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>7.1000000000000201</v>
       </c>
       <c r="G62" s="2">
-        <v>7.0000000000000098</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
         <v>7.0850000000000204</v>
       </c>
       <c r="G63" s="2">
-        <v>7.1</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>7.0700000000000198</v>
       </c>
       <c r="G64" s="2">
-        <v>7.2000000000000099</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>7.0550000000000201</v>
       </c>
       <c r="G65" s="2">
-        <v>7.3000000000000096</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
         <v>7.0400000000000196</v>
       </c>
       <c r="G66" s="2">
-        <v>7.4000000000000101</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -1995,7 +1995,7 @@
         <v>7.0250000000000199</v>
       </c>
       <c r="G67" s="2">
-        <v>7.5000000000000098</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>7.0100000000000202</v>
       </c>
       <c r="G68" s="2">
-        <v>7.6000000000000103</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>6.9950000000000196</v>
       </c>
       <c r="G69" s="2">
-        <v>7.7000000000000099</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,7 +2064,7 @@
         <v>6.98000000000002</v>
       </c>
       <c r="G70" s="2">
-        <v>7.8000000000000096</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
         <v>6.9650000000000203</v>
       </c>
       <c r="G71" s="2">
-        <v>7.9000000000000101</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>6.9500000000000197</v>
       </c>
       <c r="G72" s="2">
-        <v>8.0000000000000107</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
         <v>6.93500000000002</v>
       </c>
       <c r="G73" s="2">
-        <v>8.1000000000000103</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>6.9200000000000204</v>
       </c>
       <c r="G74" s="2">
-        <v>8.2000000000000099</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>6.9050000000000198</v>
       </c>
       <c r="G75" s="2">
-        <v>8.3000000000000096</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>6.8900000000000201</v>
       </c>
       <c r="G76" s="2">
-        <v>8.4000000000000092</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>6.8750000000000204</v>
       </c>
       <c r="G77" s="2">
-        <v>8.5000000000000107</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,7 +2248,7 @@
         <v>6.8600000000000199</v>
       </c>
       <c r="G78" s="2">
-        <v>8.6000000000000103</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>6.8450000000000202</v>
       </c>
       <c r="G79" s="2">
-        <v>8.7000000000000099</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
         <v>6.8300000000000196</v>
       </c>
       <c r="G80" s="2">
-        <v>8.8000000000000096</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>6.8150000000000297</v>
       </c>
       <c r="G81" s="2">
-        <v>8.9000000000000092</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2340,7 +2340,7 @@
         <v>6.80000000000003</v>
       </c>
       <c r="G82" s="2">
-        <v>9.0000000000000107</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2363,7 +2363,7 @@
         <v>6.7850000000000303</v>
       </c>
       <c r="G83" s="2">
-        <v>9.1000000000000103</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
         <v>6.7700000000000298</v>
       </c>
       <c r="G84" s="2">
-        <v>9.2000000000000099</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2409,7 +2409,7 @@
         <v>6.7550000000000301</v>
       </c>
       <c r="G85" s="2">
-        <v>9.3000000000000096</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>6.7400000000000304</v>
       </c>
       <c r="G86" s="2">
-        <v>9.4000000000000092</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>6.7250000000000298</v>
       </c>
       <c r="G87" s="2">
-        <v>9.5000000000000107</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>6.7100000000000302</v>
       </c>
       <c r="G88" s="2">
-        <v>9.6000000000000103</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>6.6950000000000296</v>
       </c>
       <c r="G89" s="2">
-        <v>9.7000000000000099</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>6.6800000000000299</v>
       </c>
       <c r="G90" s="2">
-        <v>9.8000000000000096</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>6.6650000000000302</v>
       </c>
       <c r="G91" s="2">
-        <v>9.9000000000000092</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2570,7 +2570,7 @@
         <v>6.6500000000000297</v>
       </c>
       <c r="G92" s="2">
-        <v>10</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,7 +2593,7 @@
         <v>6.63500000000003</v>
       </c>
       <c r="G93" s="2">
-        <v>10.1</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>6.6200000000000303</v>
       </c>
       <c r="G94" s="2">
-        <v>10.199999999999999</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>6.6050000000000297</v>
       </c>
       <c r="G95" s="2">
-        <v>10.3</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
         <v>6.5900000000000301</v>
       </c>
       <c r="G96" s="2">
-        <v>10.4</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2685,7 +2685,7 @@
         <v>6.5750000000000304</v>
       </c>
       <c r="G97" s="2">
-        <v>10.5</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
         <v>6.5600000000000298</v>
       </c>
       <c r="G98" s="2">
-        <v>10.6</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>6.5450000000000301</v>
       </c>
       <c r="G99" s="2">
-        <v>10.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>6.5300000000000296</v>
       </c>
       <c r="G100" s="2">
-        <v>10.8</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>6.5150000000000299</v>
       </c>
       <c r="G101" s="2">
-        <v>10.9</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2800,7 +2800,7 @@
         <v>6.5000000000000302</v>
       </c>
       <c r="G102" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>6.4850000000000296</v>
       </c>
       <c r="G103" s="2">
-        <v>11.1</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>6.4700000000000299</v>
       </c>
       <c r="G104" s="2">
-        <v>11.2</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
         <v>6.4550000000000303</v>
       </c>
       <c r="G105" s="2">
-        <v>11.3</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>6.4400000000000297</v>
       </c>
       <c r="G106" s="2">
-        <v>11.4</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -2915,7 +2915,7 @@
         <v>6.42500000000003</v>
       </c>
       <c r="G107" s="2">
-        <v>11.5</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
         <v>6.4100000000000303</v>
       </c>
       <c r="G108" s="2">
-        <v>11.6</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -2961,7 +2961,7 @@
         <v>6.3950000000000298</v>
       </c>
       <c r="G109" s="2">
-        <v>11.7</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -2984,7 +2984,7 @@
         <v>6.3800000000000301</v>
       </c>
       <c r="G110" s="2">
-        <v>11.8</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3007,7 +3007,7 @@
         <v>6.3650000000000304</v>
       </c>
       <c r="G111" s="2">
-        <v>11.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
         <v>6.3500000000000396</v>
       </c>
       <c r="G112" s="2">
-        <v>12</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>6.3350000000000399</v>
       </c>
       <c r="G113" s="2">
-        <v>12.1</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>6.3200000000000403</v>
       </c>
       <c r="G114" s="2">
-        <v>12.2</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3099,7 +3099,7 @@
         <v>6.3050000000000397</v>
       </c>
       <c r="G115" s="2">
-        <v>12.3</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>6.29000000000004</v>
       </c>
       <c r="G116" s="2">
-        <v>12.4</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>6.2750000000000403</v>
       </c>
       <c r="G117" s="2">
-        <v>12.5</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>6.2600000000000398</v>
       </c>
       <c r="G118" s="2">
-        <v>12.6</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>6.2450000000000401</v>
       </c>
       <c r="G119" s="2">
-        <v>12.7</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>6.2300000000000404</v>
       </c>
       <c r="G120" s="2">
-        <v>12.8</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>6.2150000000000398</v>
       </c>
       <c r="G121" s="2">
-        <v>12.9</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>6.2000000000000401</v>
       </c>
       <c r="G122" s="2">
-        <v>13</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3283,7 +3283,7 @@
         <v>6.1850000000000396</v>
       </c>
       <c r="G123" s="2">
-        <v>13.1</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3306,7 +3306,7 @@
         <v>6.1700000000000399</v>
       </c>
       <c r="G124" s="2">
-        <v>13.2</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3329,7 +3329,7 @@
         <v>6.1550000000000402</v>
       </c>
       <c r="G125" s="2">
-        <v>13.3</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
         <v>6.1400000000000396</v>
       </c>
       <c r="G126" s="2">
-        <v>13.4</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>6.12500000000004</v>
       </c>
       <c r="G127" s="2">
-        <v>13.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3398,7 +3398,7 @@
         <v>6.1100000000000403</v>
       </c>
       <c r="G128" s="2">
-        <v>13.6</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,7 +3421,7 @@
         <v>6.0950000000000397</v>
       </c>
       <c r="G129" s="2">
-        <v>13.7</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
         <v>6.08000000000004</v>
       </c>
       <c r="G130" s="2">
-        <v>13.8</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3467,7 +3467,7 @@
         <v>6.0650000000000404</v>
       </c>
       <c r="G131" s="2">
-        <v>13.9</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
         <v>6.0500000000000398</v>
       </c>
       <c r="G132" s="2">
-        <v>14</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3513,7 +3513,7 @@
         <v>6.0350000000000401</v>
       </c>
       <c r="G133" s="2">
-        <v>14.1</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3536,7 +3536,7 @@
         <v>6.0200000000000404</v>
       </c>
       <c r="G134" s="2">
-        <v>14.2</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>6.0050000000000399</v>
       </c>
       <c r="G135" s="2">
-        <v>14.3</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3582,7 +3582,7 @@
         <v>5.9900000000000402</v>
       </c>
       <c r="G136" s="2">
-        <v>14.4</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>5.9750000000000396</v>
       </c>
       <c r="G137" s="2">
-        <v>14.5</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>5.9600000000000399</v>
       </c>
       <c r="G138" s="2">
-        <v>14.6</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
         <v>5.9450000000000403</v>
       </c>
       <c r="G139" s="2">
-        <v>14.7</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3674,7 +3674,7 @@
         <v>5.9300000000000397</v>
       </c>
       <c r="G140" s="2">
-        <v>14.8</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
         <v>5.91500000000004</v>
       </c>
       <c r="G141" s="2">
-        <v>14.9</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3720,7 +3720,7 @@
         <v>5.9000000000000403</v>
       </c>
       <c r="G142" s="2">
-        <v>15</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3743,7 +3743,7 @@
         <v>5.8850000000000504</v>
       </c>
       <c r="G143" s="2">
-        <v>15.1</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
         <v>5.8700000000000498</v>
       </c>
       <c r="G144" s="2">
-        <v>15.2</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3789,7 +3789,7 @@
         <v>5.8550000000000502</v>
       </c>
       <c r="G145" s="2">
-        <v>15.3</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3812,7 +3812,7 @@
         <v>5.8400000000000496</v>
       </c>
       <c r="G146" s="2">
-        <v>15.4</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,7 +3835,7 @@
         <v>5.8250000000000499</v>
       </c>
       <c r="G147" s="2">
-        <v>15.5</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
         <v>5.8100000000000502</v>
       </c>
       <c r="G148" s="2">
-        <v>15.6</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
         <v>5.7950000000000497</v>
       </c>
       <c r="G149" s="2">
-        <v>15.7</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -3904,7 +3904,7 @@
         <v>5.78000000000005</v>
       </c>
       <c r="G150" s="2">
-        <v>15.8</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -3927,7 +3927,7 @@
         <v>5.7650000000000503</v>
       </c>
       <c r="G151" s="2">
-        <v>15.9</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>5.7500000000000497</v>
       </c>
       <c r="G152" s="2">
-        <v>16</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
         <v>5.7350000000000501</v>
       </c>
       <c r="G153" s="2">
-        <v>16.100000000000001</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,7 @@
         <v>5.7200000000000504</v>
       </c>
       <c r="G154" s="2">
-        <v>16.2</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>5.7050000000000498</v>
       </c>
       <c r="G155" s="2">
-        <v>16.3</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4042,7 +4042,7 @@
         <v>5.6900000000000501</v>
       </c>
       <c r="G156" s="2">
-        <v>16.399999999999999</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,7 +4065,7 @@
         <v>5.6750000000000496</v>
       </c>
       <c r="G157" s="2">
-        <v>16.5</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>5.6600000000000499</v>
       </c>
       <c r="G158" s="2">
-        <v>16.600000000000001</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>5.6450000000000502</v>
       </c>
       <c r="G159" s="2">
-        <v>16.7</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
         <v>5.6300000000000496</v>
       </c>
       <c r="G160" s="2">
-        <v>16.8</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4157,7 +4157,7 @@
         <v>5.61500000000005</v>
       </c>
       <c r="G161" s="2">
-        <v>16.899999999999999</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,7 @@
         <v>5.6000000000000503</v>
       </c>
       <c r="G162" s="2">
-        <v>17</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
         <v>5.5850000000000497</v>
       </c>
       <c r="G163" s="2">
-        <v>17.100000000000001</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
         <v>5.57000000000005</v>
       </c>
       <c r="G164" s="2">
-        <v>17.2</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4249,7 +4249,7 @@
         <v>5.5550000000000503</v>
       </c>
       <c r="G165" s="2">
-        <v>17.3</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>5.5400000000000498</v>
       </c>
       <c r="G166" s="2">
-        <v>17.399999999999999</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>5.5250000000000501</v>
       </c>
       <c r="G167" s="2">
-        <v>17.5</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4318,7 +4318,7 @@
         <v>5.5100000000000504</v>
       </c>
       <c r="G168" s="2">
-        <v>17.600000000000001</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>5.4950000000000498</v>
       </c>
       <c r="G169" s="2">
-        <v>17.7</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>5.4800000000000502</v>
       </c>
       <c r="G170" s="2">
-        <v>17.8</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4387,7 +4387,7 @@
         <v>5.4650000000000496</v>
       </c>
       <c r="G171" s="2">
-        <v>17.899999999999999</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4410,7 +4410,7 @@
         <v>5.4500000000000499</v>
       </c>
       <c r="G172" s="2">
-        <v>18</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4433,7 +4433,7 @@
         <v>5.4350000000000502</v>
       </c>
       <c r="G173" s="2">
-        <v>18.100000000000001</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4456,7 +4456,7 @@
         <v>5.4200000000000497</v>
       </c>
       <c r="G174" s="2">
-        <v>18.2</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
         <v>5.4050000000000598</v>
       </c>
       <c r="G175" s="2">
-        <v>18.3</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4502,7 +4502,7 @@
         <v>5.3900000000000601</v>
       </c>
       <c r="G176" s="2">
-        <v>18.399999999999999</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4525,7 +4525,7 @@
         <v>5.3750000000000604</v>
       </c>
       <c r="G177" s="2">
-        <v>18.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4548,7 +4548,7 @@
         <v>5.3600000000000598</v>
       </c>
       <c r="G178" s="2">
-        <v>18.600000000000001</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4571,7 +4571,7 @@
         <v>5.3450000000000601</v>
       </c>
       <c r="G179" s="2">
-        <v>18.7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,7 @@
         <v>5.3300000000000596</v>
       </c>
       <c r="G180" s="2">
-        <v>18.8</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>5.3150000000000599</v>
       </c>
       <c r="G181" s="2">
-        <v>18.899999999999999</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4640,7 +4640,7 @@
         <v>5.3000000000000602</v>
       </c>
       <c r="G182" s="2">
-        <v>19</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4663,7 +4663,7 @@
         <v>5.2850000000000597</v>
       </c>
       <c r="G183" s="2">
-        <v>19.100000000000001</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4686,7 +4686,7 @@
         <v>5.27000000000006</v>
       </c>
       <c r="G184" s="2">
-        <v>19.2</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4709,7 +4709,7 @@
         <v>5.2550000000000603</v>
       </c>
       <c r="G185" s="2">
-        <v>19.3</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
         <v>5.2400000000000597</v>
       </c>
       <c r="G186" s="2">
-        <v>19.399999999999999</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4755,7 +4755,7 @@
         <v>5.22500000000006</v>
       </c>
       <c r="G187" s="2">
-        <v>19.5</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4778,7 +4778,7 @@
         <v>5.2100000000000604</v>
       </c>
       <c r="G188" s="2">
-        <v>19.600000000000001</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4801,7 +4801,7 @@
         <v>5.1950000000000598</v>
       </c>
       <c r="G189" s="2">
-        <v>19.7</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4824,7 +4824,7 @@
         <v>5.1800000000000601</v>
       </c>
       <c r="G190" s="2">
-        <v>19.8</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4847,7 +4847,7 @@
         <v>5.1650000000000604</v>
       </c>
       <c r="G191" s="2">
-        <v>19.899999999999999</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -4870,7 +4870,7 @@
         <v>5.1500000000000599</v>
       </c>
       <c r="G192" s="2">
-        <v>20</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>5.1350000000000602</v>
       </c>
       <c r="G193" s="2">
-        <v>20.100000000000001</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -4916,7 +4916,7 @@
         <v>5.1200000000000596</v>
       </c>
       <c r="G194" s="2">
-        <v>20.2</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -4939,7 +4939,7 @@
         <v>5.1050000000000599</v>
       </c>
       <c r="G195" s="2">
-        <v>20.3</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -4962,7 +4962,7 @@
         <v>5.0900000000000603</v>
       </c>
       <c r="G196" s="2">
-        <v>20.399999999999999</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -4985,7 +4985,7 @@
         <v>5.0750000000000597</v>
       </c>
       <c r="G197" s="2">
-        <v>20.5</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
         <v>5.06000000000006</v>
       </c>
       <c r="G198" s="2">
-        <v>20.6</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
         <v>5.0450000000000603</v>
       </c>
       <c r="G199" s="2">
-        <v>20.7</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5054,7 +5054,7 @@
         <v>5.0300000000000598</v>
       </c>
       <c r="G200" s="2">
-        <v>20.8</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -5077,7 +5077,7 @@
         <v>5.0150000000000601</v>
       </c>
       <c r="G201" s="2">
-        <v>20.9</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5100,7 +5100,7 @@
         <v>5.0000000000000604</v>
       </c>
       <c r="G202" s="2">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
         <v>4.9850000000000598</v>
       </c>
       <c r="G203" s="2">
-        <v>21.1</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
         <v>4.9700000000000601</v>
       </c>
       <c r="G204" s="2">
-        <v>21.2</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5169,7 +5169,7 @@
         <v>4.9550000000000596</v>
       </c>
       <c r="G205" s="2">
-        <v>21.3</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -5192,7 +5192,7 @@
         <v>4.9400000000000697</v>
       </c>
       <c r="G206" s="2">
-        <v>21.4</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5215,7 +5215,7 @@
         <v>4.92500000000007</v>
       </c>
       <c r="G207" s="2">
-        <v>21.5</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -5238,7 +5238,7 @@
         <v>4.9100000000000703</v>
       </c>
       <c r="G208" s="2">
-        <v>21.6</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -5261,7 +5261,7 @@
         <v>4.8950000000000697</v>
       </c>
       <c r="G209" s="2">
-        <v>21.7</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
         <v>4.8800000000000701</v>
       </c>
       <c r="G210" s="2">
-        <v>21.8</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5307,7 +5307,7 @@
         <v>4.8650000000000704</v>
       </c>
       <c r="G211" s="2">
-        <v>21.9</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -5330,7 +5330,7 @@
         <v>4.8500000000000698</v>
       </c>
       <c r="G212" s="2">
-        <v>22</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5353,7 +5353,7 @@
         <v>4.8350000000000701</v>
       </c>
       <c r="G213" s="2">
-        <v>22.1</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5376,7 +5376,7 @@
         <v>4.8200000000000696</v>
       </c>
       <c r="G214" s="2">
-        <v>22.2</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5399,7 +5399,7 @@
         <v>4.8050000000000699</v>
       </c>
       <c r="G215" s="2">
-        <v>22.3</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5422,7 +5422,7 @@
         <v>4.7900000000000702</v>
       </c>
       <c r="G216" s="2">
-        <v>22.4</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -5445,7 +5445,7 @@
         <v>4.7750000000000696</v>
       </c>
       <c r="G217" s="2">
-        <v>22.5</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -5468,7 +5468,7 @@
         <v>4.76000000000007</v>
       </c>
       <c r="G218" s="2">
-        <v>22.6</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -5491,7 +5491,7 @@
         <v>4.7450000000000703</v>
       </c>
       <c r="G219" s="2">
-        <v>22.7</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -5514,7 +5514,7 @@
         <v>4.7300000000000697</v>
       </c>
       <c r="G220" s="2">
-        <v>22.8</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
         <v>4.71500000000007</v>
       </c>
       <c r="G221" s="2">
-        <v>22.9</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5560,7 +5560,7 @@
         <v>4.7000000000000703</v>
       </c>
       <c r="G222" s="2">
-        <v>23</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -5583,7 +5583,7 @@
         <v>4.6850000000000698</v>
       </c>
       <c r="G223" s="2">
-        <v>23.1</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
         <v>4.6700000000000701</v>
       </c>
       <c r="G224" s="2">
-        <v>23.2</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
         <v>4.6550000000000704</v>
       </c>
       <c r="G225" s="2">
-        <v>23.3</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
         <v>4.6400000000000698</v>
       </c>
       <c r="G226" s="2">
-        <v>23.4</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -5675,7 +5675,7 @@
         <v>4.6250000000000702</v>
       </c>
       <c r="G227" s="2">
-        <v>23.5</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,7 +5698,7 @@
         <v>4.6100000000000696</v>
       </c>
       <c r="G228" s="2">
-        <v>23.6</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -5721,7 +5721,7 @@
         <v>4.5950000000000699</v>
       </c>
       <c r="G229" s="2">
-        <v>23.7</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -5744,7 +5744,7 @@
         <v>4.5800000000000702</v>
       </c>
       <c r="G230" s="2">
-        <v>23.8</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -5767,7 +5767,7 @@
         <v>4.5650000000000697</v>
       </c>
       <c r="G231" s="2">
-        <v>23.9</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -5790,7 +5790,7 @@
         <v>4.55000000000007</v>
       </c>
       <c r="G232" s="2">
-        <v>24</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,7 +5813,7 @@
         <v>4.5350000000000703</v>
       </c>
       <c r="G233" s="2">
-        <v>24.1</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -5836,7 +5836,7 @@
         <v>4.5200000000000697</v>
       </c>
       <c r="G234" s="2">
-        <v>24.2</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -5859,7 +5859,7 @@
         <v>4.5050000000000701</v>
       </c>
       <c r="G235" s="2">
-        <v>24.3</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -5882,7 +5882,7 @@
         <v>4.4900000000000704</v>
       </c>
       <c r="G236" s="2">
-        <v>24.4</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,7 +5905,7 @@
         <v>4.4750000000000796</v>
       </c>
       <c r="G237" s="2">
-        <v>24.5</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -5928,7 +5928,7 @@
         <v>4.4600000000000799</v>
       </c>
       <c r="G238" s="2">
-        <v>24.6</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -5951,7 +5951,7 @@
         <v>4.4450000000000802</v>
       </c>
       <c r="G239" s="2">
-        <v>24.7</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,7 +5974,7 @@
         <v>4.4300000000000797</v>
       </c>
       <c r="G240" s="2">
-        <v>24.8</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -5997,7 +5997,7 @@
         <v>4.41500000000008</v>
       </c>
       <c r="G241" s="2">
-        <v>24.9</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -6020,7 +6020,7 @@
         <v>4.4000000000000803</v>
       </c>
       <c r="G242" s="2">
-        <v>25</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -6043,7 +6043,7 @@
         <v>4.3850000000000797</v>
       </c>
       <c r="G243" s="2">
-        <v>25.1</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -6066,7 +6066,7 @@
         <v>4.37000000000008</v>
       </c>
       <c r="G244" s="2">
-        <v>25.2</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -6089,7 +6089,7 @@
         <v>4.3550000000000804</v>
       </c>
       <c r="G245" s="2">
-        <v>25.3</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
         <v>4.3400000000000798</v>
       </c>
       <c r="G246" s="2">
-        <v>25.4</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -6135,7 +6135,7 @@
         <v>4.3250000000000801</v>
       </c>
       <c r="G247" s="2">
-        <v>25.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -6158,7 +6158,7 @@
         <v>4.3100000000000804</v>
       </c>
       <c r="G248" s="2">
-        <v>25.6</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -6181,7 +6181,7 @@
         <v>4.2950000000000799</v>
       </c>
       <c r="G249" s="2">
-        <v>25.7</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -6204,7 +6204,7 @@
         <v>4.2800000000000802</v>
       </c>
       <c r="G250" s="2">
-        <v>25.8</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -6227,7 +6227,7 @@
         <v>4.2650000000000796</v>
       </c>
       <c r="G251" s="2">
-        <v>25.9</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -6250,7 +6250,7 @@
         <v>4.2500000000000799</v>
       </c>
       <c r="G252" s="2">
-        <v>26</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -6273,7 +6273,7 @@
         <v>4.2350000000000803</v>
       </c>
       <c r="G253" s="2">
-        <v>26.1</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
         <v>4.2200000000000797</v>
       </c>
       <c r="G254" s="2">
-        <v>26.2</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,7 +6319,7 @@
         <v>4.20500000000008</v>
       </c>
       <c r="G255" s="2">
-        <v>26.3</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -6342,7 +6342,7 @@
         <v>4.1900000000000803</v>
       </c>
       <c r="G256" s="2">
-        <v>26.4</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,7 +6365,7 @@
         <v>4.1750000000000798</v>
       </c>
       <c r="G257" s="2">
-        <v>26.5</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -6388,7 +6388,7 @@
         <v>4.1600000000000801</v>
       </c>
       <c r="G258" s="2">
-        <v>26.6</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6411,7 +6411,7 @@
         <v>4.1450000000000804</v>
       </c>
       <c r="G259" s="2">
-        <v>26.7</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -6434,7 +6434,7 @@
         <v>4.1300000000000798</v>
       </c>
       <c r="G260" s="2">
-        <v>26.8</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,7 +6457,7 @@
         <v>4.1150000000000801</v>
       </c>
       <c r="G261" s="2">
-        <v>26.9</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -6480,7 +6480,7 @@
         <v>4.1000000000000796</v>
       </c>
       <c r="G262" s="2">
-        <v>27</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -6503,7 +6503,7 @@
         <v>4.0850000000000799</v>
       </c>
       <c r="G263" s="2">
-        <v>27.1</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -6526,7 +6526,7 @@
         <v>4.0700000000000802</v>
       </c>
       <c r="G264" s="2">
-        <v>27.2</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -6549,7 +6549,7 @@
         <v>4.0550000000000797</v>
       </c>
       <c r="G265" s="2">
-        <v>27.3</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
         <v>4.04000000000008</v>
       </c>
       <c r="G266" s="2">
-        <v>27.4</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6595,7 +6595,7 @@
         <v>4.0250000000000803</v>
       </c>
       <c r="G267" s="2">
-        <v>27.5</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -6618,7 +6618,7 @@
         <v>4.0100000000000904</v>
       </c>
       <c r="G268" s="2">
-        <v>27.6</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -6641,7 +6641,7 @@
         <v>3.9950000000000898</v>
       </c>
       <c r="G269" s="2">
-        <v>27.7</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>3.9800000000000901</v>
       </c>
       <c r="G270" s="2">
-        <v>27.8</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -6687,7 +6687,7 @@
         <v>3.96500000000009</v>
       </c>
       <c r="G271" s="2">
-        <v>27.9</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -6710,7 +6710,7 @@
         <v>3.9500000000000899</v>
       </c>
       <c r="G272" s="2">
-        <v>28</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -6733,7 +6733,7 @@
         <v>3.9350000000000902</v>
       </c>
       <c r="G273" s="2">
-        <v>28.1</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -6756,7 +6756,7 @@
         <v>3.9200000000000901</v>
       </c>
       <c r="G274" s="2">
-        <v>28.2</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -6779,7 +6779,7 @@
         <v>3.90500000000009</v>
       </c>
       <c r="G275" s="2">
-        <v>28.3</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -6802,7 +6802,7 @@
         <v>3.8900000000000898</v>
       </c>
       <c r="G276" s="2">
-        <v>28.4</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -6825,7 +6825,7 @@
         <v>3.8750000000000902</v>
       </c>
       <c r="G277" s="2">
-        <v>28.5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -6848,7 +6848,7 @@
         <v>3.86000000000009</v>
       </c>
       <c r="G278" s="2">
-        <v>28.6</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -6871,7 +6871,7 @@
         <v>3.8450000000000899</v>
       </c>
       <c r="G279" s="2">
-        <v>28.7</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -6894,7 +6894,7 @@
         <v>3.8300000000000902</v>
       </c>
       <c r="G280" s="2">
-        <v>28.8</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
         <v>3.8150000000000901</v>
       </c>
       <c r="G281" s="2">
-        <v>28.9</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -6940,7 +6940,7 @@
         <v>3.80000000000009</v>
       </c>
       <c r="G282" s="2">
-        <v>29</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -6963,7 +6963,7 @@
         <v>3.7850000000000898</v>
       </c>
       <c r="G283" s="2">
-        <v>29.1</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,7 +6986,7 @@
         <v>3.7700000000000902</v>
       </c>
       <c r="G284" s="2">
-        <v>29.2</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -7009,7 +7009,7 @@
         <v>3.75500000000009</v>
       </c>
       <c r="G285" s="2">
-        <v>29.3</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -7032,7 +7032,7 @@
         <v>3.7400000000000899</v>
       </c>
       <c r="G286" s="2">
-        <v>29.4</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
         <v>3.7250000000000898</v>
       </c>
       <c r="G287" s="2">
-        <v>29.5</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -7078,7 +7078,7 @@
         <v>3.7100000000000901</v>
       </c>
       <c r="G288" s="2">
-        <v>29.6</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -7101,7 +7101,7 @@
         <v>3.69500000000009</v>
       </c>
       <c r="G289" s="2">
-        <v>29.7</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -7124,7 +7124,7 @@
         <v>3.6800000000000899</v>
       </c>
       <c r="G290" s="2">
-        <v>29.8</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,7 +7147,7 @@
         <v>3.6650000000000902</v>
       </c>
       <c r="G291" s="2">
-        <v>29.9</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -7170,7 +7170,7 @@
         <v>3.6500000000000901</v>
       </c>
       <c r="G292" s="2">
-        <v>30</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -7193,7 +7193,7 @@
         <v>3.6350000000000899</v>
       </c>
       <c r="G293" s="2">
-        <v>30.1</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>3.6200000000000898</v>
       </c>
       <c r="G294" s="2">
-        <v>30.2</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -7239,7 +7239,7 @@
         <v>3.6050000000000901</v>
       </c>
       <c r="G295" s="2">
-        <v>30.3</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -7262,7 +7262,7 @@
         <v>3.59000000000009</v>
       </c>
       <c r="G296" s="2">
-        <v>30.4</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
         <v>3.5750000000000899</v>
       </c>
       <c r="G297" s="2">
-        <v>30.5</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -7308,7 +7308,7 @@
         <v>3.5600000000000902</v>
       </c>
       <c r="G298" s="2">
-        <v>30.6</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -7331,7 +7331,7 @@
         <v>3.5450000000000901</v>
       </c>
       <c r="G299" s="2">
-        <v>30.7</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -7354,7 +7354,7 @@
         <v>3.5300000000001002</v>
       </c>
       <c r="G300" s="2">
-        <v>30.8</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -7377,7 +7377,7 @@
         <v>3.5150000000001</v>
       </c>
       <c r="G301" s="2">
-        <v>30.9</v>
+        <v>3.99</v>
       </c>
     </row>
   </sheetData>

--- a/Bees/xlsx/manufacture.xlsx
+++ b/Bees/xlsx/manufacture.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work1\Bees\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A49B70-6C2D-4279-957C-286F04FD6F17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -62,11 +56,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,27 +191,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,24 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,22 +400,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.09765625" customWidth="1"/>
-    <col min="7" max="7" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -503,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -526,7 +484,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -549,7 +507,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -572,7 +530,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -595,7 +553,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -618,7 +576,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -641,7 +599,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -664,7 +622,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -687,7 +645,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -710,7 +668,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -733,7 +691,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -756,7 +714,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -779,7 +737,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -802,7 +760,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -825,7 +783,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -848,7 +806,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -871,7 +829,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -894,7 +852,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -917,7 +875,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -940,7 +898,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -963,7 +921,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -986,7 +944,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1009,7 +967,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1032,7 +990,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1055,7 +1013,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1078,7 +1036,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1101,7 +1059,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1124,7 +1082,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1147,7 +1105,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1170,7 +1128,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1193,7 +1151,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1216,7 +1174,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1239,7 +1197,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1262,7 +1220,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1285,7 +1243,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1308,7 +1266,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1331,7 +1289,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1354,7 +1312,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1377,7 +1335,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1400,7 +1358,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1423,7 +1381,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1446,7 +1404,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1469,7 +1427,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1492,7 +1450,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1515,7 +1473,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1538,7 +1496,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1561,7 +1519,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1584,7 +1542,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1607,7 +1565,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1630,7 +1588,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1653,7 +1611,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1676,7 +1634,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1699,7 +1657,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1722,7 +1680,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1745,7 +1703,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1768,7 +1726,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1791,7 +1749,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1814,7 +1772,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1837,7 +1795,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1860,7 +1818,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1883,7 +1841,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1906,7 +1864,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1929,7 +1887,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1952,7 +1910,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1975,7 +1933,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1998,7 +1956,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2021,7 +1979,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2044,7 +2002,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2067,7 +2025,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2090,7 +2048,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2113,7 +2071,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2136,7 +2094,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2159,7 +2117,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2182,7 +2140,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2205,7 +2163,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2228,7 +2186,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2251,7 +2209,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2274,7 +2232,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2297,7 +2255,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2320,7 +2278,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2343,7 +2301,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2366,7 +2324,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2389,7 +2347,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2412,7 +2370,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2435,7 +2393,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2458,7 +2416,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2481,7 +2439,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2504,7 +2462,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2527,7 +2485,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2550,7 +2508,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2573,7 +2531,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2596,7 +2554,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2619,7 +2577,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2642,7 +2600,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2665,7 +2623,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2688,7 +2646,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2711,7 +2669,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2734,7 +2692,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2757,7 +2715,7 @@
         <v>1.98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2780,7 +2738,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2803,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2826,7 +2784,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2849,7 +2807,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2872,7 +2830,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2895,7 +2853,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2918,7 +2876,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2941,7 +2899,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2964,7 +2922,7 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2987,7 +2945,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3010,7 +2968,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3033,7 +2991,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3056,7 +3014,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3079,7 +3037,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3102,7 +3060,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3125,7 +3083,7 @@
         <v>2.14</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3148,7 +3106,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3171,7 +3129,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3194,7 +3152,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3217,7 +3175,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3240,7 +3198,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3263,7 +3221,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3286,7 +3244,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3309,7 +3267,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3332,7 +3290,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3355,7 +3313,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3378,7 +3336,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3401,7 +3359,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3424,7 +3382,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3447,7 +3405,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3470,7 +3428,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3493,7 +3451,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3516,7 +3474,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3539,7 +3497,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3562,7 +3520,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3585,7 +3543,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3608,7 +3566,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3631,7 +3589,7 @@
         <v>2.36</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3654,7 +3612,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3677,7 +3635,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3700,7 +3658,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3723,7 +3681,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3746,7 +3704,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3769,7 +3727,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3792,7 +3750,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3815,7 +3773,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3838,7 +3796,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3861,7 +3819,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3884,7 +3842,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3907,7 +3865,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3930,7 +3888,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3953,7 +3911,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3976,7 +3934,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3999,7 +3957,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4022,7 +3980,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4045,7 +4003,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4068,7 +4026,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4091,7 +4049,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4114,7 +4072,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4137,7 +4095,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4160,7 +4118,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4183,7 +4141,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4206,7 +4164,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4229,7 +4187,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4252,7 +4210,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4275,7 +4233,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4298,7 +4256,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4321,7 +4279,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4344,7 +4302,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4367,7 +4325,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4390,7 +4348,7 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4413,7 +4371,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4436,7 +4394,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4459,7 +4417,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4482,7 +4440,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4505,7 +4463,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4528,7 +4486,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4551,7 +4509,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4574,7 +4532,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4597,7 +4555,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4620,7 +4578,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4643,7 +4601,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4666,7 +4624,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4689,7 +4647,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4712,7 +4670,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4735,7 +4693,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4758,7 +4716,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4781,7 +4739,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4804,7 +4762,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>189</v>
       </c>
@@ -4827,7 +4785,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>190</v>
       </c>
@@ -4850,7 +4808,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>191</v>
       </c>
@@ -4873,7 +4831,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>192</v>
       </c>
@@ -4896,7 +4854,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>193</v>
       </c>
@@ -4919,7 +4877,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>194</v>
       </c>
@@ -4942,7 +4900,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>195</v>
       </c>
@@ -4965,7 +4923,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>196</v>
       </c>
@@ -4988,7 +4946,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5011,7 +4969,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5034,7 +4992,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5057,7 +5015,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5080,7 +5038,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5103,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5126,7 +5084,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5149,7 +5107,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5172,7 +5130,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5195,7 +5153,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5218,7 +5176,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5241,7 +5199,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5264,7 +5222,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5287,7 +5245,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5310,7 +5268,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5333,7 +5291,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5356,7 +5314,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5379,7 +5337,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5402,7 +5360,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5425,7 +5383,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5448,7 +5406,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5471,7 +5429,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5494,7 +5452,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5517,7 +5475,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5540,7 +5498,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5563,7 +5521,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5586,7 +5544,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5609,7 +5567,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5632,7 +5590,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5655,7 +5613,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5678,7 +5636,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5701,7 +5659,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5724,7 +5682,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5747,7 +5705,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5770,7 +5728,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5793,7 +5751,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5816,7 +5774,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5839,7 +5797,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5862,7 +5820,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5885,7 +5843,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5908,7 +5866,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5931,7 +5889,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5954,7 +5912,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5977,7 +5935,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>240</v>
       </c>
@@ -6000,7 +5958,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>241</v>
       </c>
@@ -6023,7 +5981,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>242</v>
       </c>
@@ -6046,7 +6004,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>243</v>
       </c>
@@ -6069,7 +6027,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>244</v>
       </c>
@@ -6092,7 +6050,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>245</v>
       </c>
@@ -6115,7 +6073,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>246</v>
       </c>
@@ -6138,7 +6096,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>247</v>
       </c>
@@ -6161,7 +6119,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>248</v>
       </c>
@@ -6184,7 +6142,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>249</v>
       </c>
@@ -6207,7 +6165,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>250</v>
       </c>
@@ -6230,7 +6188,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>251</v>
       </c>
@@ -6253,7 +6211,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>252</v>
       </c>
@@ -6276,7 +6234,7 @@
         <v>3.51</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>253</v>
       </c>
@@ -6299,7 +6257,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>254</v>
       </c>
@@ -6322,7 +6280,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6345,7 +6303,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6368,7 +6326,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6391,7 +6349,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6414,7 +6372,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6437,7 +6395,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6460,7 +6418,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6483,7 +6441,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6506,7 +6464,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6529,7 +6487,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6552,7 +6510,7 @@
         <v>3.63</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6575,7 +6533,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6598,7 +6556,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6621,7 +6579,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6644,7 +6602,7 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6667,7 +6625,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6690,7 +6648,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6713,7 +6671,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6736,7 +6694,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6759,7 +6717,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6782,7 +6740,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6805,7 +6763,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6828,7 +6786,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6851,7 +6809,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6874,7 +6832,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6897,7 +6855,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6920,7 +6878,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6943,7 +6901,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6966,7 +6924,7 @@
         <v>3.81</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6989,7 +6947,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>284</v>
       </c>
@@ -7012,7 +6970,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>285</v>
       </c>
@@ -7035,7 +6993,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>286</v>
       </c>
@@ -7058,7 +7016,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>287</v>
       </c>
@@ -7081,7 +7039,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>288</v>
       </c>
@@ -7104,7 +7062,7 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>289</v>
       </c>
@@ -7127,7 +7085,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7150,7 +7108,7 @@
         <v>3.89</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>291</v>
       </c>
@@ -7173,7 +7131,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>292</v>
       </c>
@@ -7196,7 +7154,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>293</v>
       </c>
@@ -7219,7 +7177,7 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>294</v>
       </c>
@@ -7242,7 +7200,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>295</v>
       </c>
@@ -7265,7 +7223,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>296</v>
       </c>
@@ -7288,7 +7246,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>297</v>
       </c>
@@ -7311,7 +7269,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>298</v>
       </c>
@@ -7334,7 +7292,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>299</v>
       </c>
@@ -7357,7 +7315,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>300</v>
       </c>
@@ -7388,12 +7346,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7401,12 +7359,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
